--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_37.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3913683.850064705</v>
+        <v>3913683.850064706</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1480660.057811262</v>
+        <v>1019854.592124771</v>
       </c>
     </row>
     <row r="8">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>154.9613742010227</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -665,13 +665,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>194.9453656527047</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -707,10 +707,10 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>128.7835007017901</v>
+        <v>99.90187484148903</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>80.36913259236702</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>19.55317847678522</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>178.6244243634932</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>77.15919157187217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1133,16 +1133,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>258.2668337170626</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>399.3976635617693</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1178,19 +1178,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>123.4514883688806</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1303,13 +1303,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>22.98569063694824</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1348,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274073</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1430,7 +1430,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274067</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051987</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="15">
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1777,10 +1777,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>83.22762595891399</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1819,7 +1819,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>143.3158222056515</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1850,7 +1850,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,22 +1892,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>115.526976800218</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2087,7 +2087,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2299,13 +2299,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>211.2541671901477</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>115.5269768002176</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750035</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2570,10 +2570,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113166</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2615,10 +2615,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>67.62960647440801</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2773,13 +2773,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>174.3062600431766</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2789,28 +2789,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710077</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206831</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722619</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417116</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896896</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113178</v>
       </c>
       <c r="I29" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274088</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051984</v>
+        <v>132.950364805199</v>
       </c>
       <c r="T29" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U29" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498011</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560537</v>
       </c>
     </row>
     <row r="30">
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2956,10 +2956,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037929</v>
       </c>
       <c r="S31" t="n">
-        <v>118.4898845065119</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>2.907873831795659</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="32">
@@ -3038,7 +3038,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417103</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>411.9645167896915</v>
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,7 +3187,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3199,13 +3199,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
@@ -3241,16 +3241,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>265.1760004670414</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3326,7 +3326,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3472,13 +3472,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151917</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3490,7 +3490,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>115.5269768002174</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,10 +3658,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3670,7 +3670,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>49.38162151975428</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -3718,16 +3718,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>160.6748545335017</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505273956</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3913,7 +3913,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>51.44029960352452</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>26.97444673954876</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3961,10 +3961,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3977,7 +3977,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>365.272891771007</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,16 +4025,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
-        <v>208.482788338502</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U44" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701357</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>118.4898845065121</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4183,10 +4183,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -4198,10 +4198,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>143.3158222056512</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2255.520561484594</v>
+        <v>2090.781606227855</v>
       </c>
       <c r="C2" t="n">
-        <v>1886.558044544182</v>
+        <v>1721.819089287443</v>
       </c>
       <c r="D2" t="n">
-        <v>1528.292345937431</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E2" t="n">
-        <v>1142.504093339187</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>731.5181885495797</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
         <v>534.603677789272</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V2" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W2" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="X2" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="Y2" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>113.6371076753678</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>368.8844281164663</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>773.5003462121382</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1297.647259770169</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1851.37379586972</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2291.509718890064</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2627.754532504893</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4507,22 +4507,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T4" t="n">
-        <v>598.0446400632119</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="U4" t="n">
-        <v>598.0446400632119</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V4" t="n">
-        <v>343.360151857325</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W4" t="n">
         <v>53.94298182036445</v>
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>546.109828622464</v>
+        <v>1611.619444146874</v>
       </c>
       <c r="C5" t="n">
-        <v>546.109828622464</v>
+        <v>1242.656927206462</v>
       </c>
       <c r="D5" t="n">
-        <v>546.109828622464</v>
+        <v>884.3912285997114</v>
       </c>
       <c r="E5" t="n">
-        <v>546.109828622464</v>
+        <v>498.6029760014672</v>
       </c>
       <c r="F5" t="n">
-        <v>135.1239238328564</v>
+        <v>87.61707121185964</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>73.69366715045054</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>73.69366715045054</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V5" t="n">
-        <v>1662.48357412947</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W5" t="n">
-        <v>1309.714918859356</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="X5" t="n">
-        <v>936.2491605982757</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="Y5" t="n">
-        <v>546.109828622464</v>
+        <v>1998.219284210995</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4656,31 +4656,31 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1851.37379586972</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2291.509718890064</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2627.754532504893</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>579.9823256406182</v>
+        <v>547.7002727281584</v>
       </c>
       <c r="T7" t="n">
-        <v>352.67413830922</v>
+        <v>320.3920853967602</v>
       </c>
       <c r="U7" t="n">
-        <v>352.67413830922</v>
+        <v>320.3920853967602</v>
       </c>
       <c r="V7" t="n">
-        <v>352.67413830922</v>
+        <v>320.3920853967602</v>
       </c>
       <c r="W7" t="n">
-        <v>352.67413830922</v>
+        <v>320.3920853967602</v>
       </c>
       <c r="X7" t="n">
-        <v>274.7355609638946</v>
+        <v>320.3920853967602</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1584.314837422907</v>
+        <v>335.6874762441716</v>
       </c>
       <c r="C8" t="n">
-        <v>1215.352320482495</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="D8" t="n">
-        <v>857.0866218757444</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="E8" t="n">
-        <v>471.2983692775002</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
         <v>67.86638588177355</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W8" t="n">
-        <v>2344.380435748108</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X8" t="n">
-        <v>1970.914677487028</v>
+        <v>1112.426648284105</v>
       </c>
       <c r="Y8" t="n">
-        <v>1970.914677487028</v>
+        <v>722.2873163082934</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424003</v>
@@ -4881,16 +4881,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4920,10 +4920,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>698.7120650600561</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="C10" t="n">
-        <v>698.7120650600561</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="D10" t="n">
-        <v>698.7120650600561</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>550.798971477663</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>403.9090239797526</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>234.9092237180851</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>77.1608511506152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
         <v>53.94298182036445</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600561</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600561</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="X10" t="n">
-        <v>698.7120650600561</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="Y10" t="n">
-        <v>698.7120650600561</v>
+        <v>473.4444960005474</v>
       </c>
     </row>
     <row r="11">
@@ -5015,13 +5015,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
@@ -5030,19 +5030,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5066,25 +5066,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5121,22 +5121,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>263.5382936126482</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L12" t="n">
-        <v>510.3034215191122</v>
+        <v>831.379571742056</v>
       </c>
       <c r="M12" t="n">
-        <v>1278.671567911574</v>
+        <v>1138.699705022018</v>
       </c>
       <c r="N12" t="n">
-        <v>2083.083146175724</v>
+        <v>1138.699705022018</v>
       </c>
       <c r="O12" t="n">
-        <v>2083.083146175724</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P12" t="n">
-        <v>2603.383767911471</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5224,19 +5224,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U13" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V13" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W13" t="n">
-        <v>241.9805482336712</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X13" t="n">
         <v>97.21709146028584</v>
@@ -5255,7 +5255,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
         <v>1701.09316900344</v>
@@ -5267,28 +5267,28 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5306,19 +5306,19 @@
         <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5355,22 +5355,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>97.21709146028584</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L15" t="n">
-        <v>711.1141612171745</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="M15" t="n">
-        <v>1479.482307609636</v>
+        <v>696.2159869504474</v>
       </c>
       <c r="N15" t="n">
-        <v>1824.002963247254</v>
+        <v>1453.977845975555</v>
       </c>
       <c r="O15" t="n">
-        <v>2072.756377331216</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>349.4607221898733</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>349.4607221898733</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>349.4607221898733</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>349.4607221898733</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>349.4607221898733</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>181.2854005096939</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028584</v>
@@ -5467,19 +5467,19 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>786.0822064765186</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V16" t="n">
-        <v>531.3977182706318</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W16" t="n">
-        <v>241.9805482336712</v>
+        <v>531.109187020113</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028584</v>
+        <v>531.109187020113</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>531.109187020113</v>
       </c>
     </row>
     <row r="17">
@@ -5492,10 +5492,10 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
@@ -5510,13 +5510,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5537,7 +5537,7 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231264</v>
@@ -5546,7 +5546,7 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
         <v>3931.29497012173</v>
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C18" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D18" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E18" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K18" t="n">
-        <v>2745.388427942954</v>
+        <v>508.1073603047986</v>
       </c>
       <c r="L18" t="n">
-        <v>2992.153555849417</v>
+        <v>1122.004430061688</v>
       </c>
       <c r="M18" t="n">
-        <v>3299.473689129379</v>
+        <v>1429.324563341649</v>
       </c>
       <c r="N18" t="n">
-        <v>4103.88526739353</v>
+        <v>1954.109744073479</v>
       </c>
       <c r="O18" t="n">
-        <v>4383.425332612227</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P18" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q18" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S18" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T18" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U18" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V18" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W18" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X18" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y18" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="19">
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5689,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V19" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W19" t="n">
-        <v>241.9805482336712</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="20">
@@ -5726,13 +5726,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
@@ -5750,10 +5750,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5786,16 +5786,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C21" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D21" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E21" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K21" t="n">
-        <v>2745.388427942954</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L21" t="n">
-        <v>3359.285497699842</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M21" t="n">
-        <v>3666.605630979804</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="N21" t="n">
-        <v>3996.468258643837</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="O21" t="n">
-        <v>4340.553951278545</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P21" t="n">
-        <v>4860.854573014292</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S21" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T21" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U21" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V21" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W21" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X21" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y21" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="22">
@@ -5935,22 +5935,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y22" t="n">
         <v>97.21709146028584</v>
@@ -6008,7 +6008,7 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014293</v>
@@ -6066,25 +6066,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341674</v>
+        <v>711.1141612171746</v>
       </c>
       <c r="M24" t="n">
-        <v>944.6756850271186</v>
+        <v>1479.482307609636</v>
       </c>
       <c r="N24" t="n">
-        <v>1749.087263291269</v>
+        <v>2033.878325127062</v>
       </c>
       <c r="O24" t="n">
-        <v>2418.551024593929</v>
+        <v>2033.878325127062</v>
       </c>
       <c r="P24" t="n">
-        <v>2623.573505376138</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6172,7 +6172,7 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1382.222354598087</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
         <v>1158.436939387592</v>
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805458</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6300,25 +6300,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K27" t="n">
-        <v>508.1073603047984</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L27" t="n">
         <v>1122.004430061687</v>
       </c>
       <c r="M27" t="n">
-        <v>1493.870190757662</v>
+        <v>1771.466266460128</v>
       </c>
       <c r="N27" t="n">
-        <v>1823.732818421694</v>
+        <v>1771.466266460128</v>
       </c>
       <c r="O27" t="n">
-        <v>2103.272883640391</v>
+        <v>2440.930027762787</v>
       </c>
       <c r="P27" t="n">
         <v>2623.573505376138</v>
@@ -6358,46 +6358,46 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1141.200876391121</v>
+        <v>333.7051469529986</v>
       </c>
       <c r="C28" t="n">
-        <v>972.2646934632137</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D28" t="n">
-        <v>822.1480540508779</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E28" t="n">
-        <v>674.2349604684848</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F28" t="n">
-        <v>527.3450129705744</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G28" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
         <v>1460.082827585746</v>
@@ -6406,28 +6406,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U28" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="V28" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="W28" t="n">
-        <v>1322.84934122136</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="X28" t="n">
-        <v>1322.84934122136</v>
+        <v>736.1461909267684</v>
       </c>
       <c r="Y28" t="n">
-        <v>1322.84934122136</v>
+        <v>515.3536117832383</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155872</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805472</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822463</v>
@@ -6461,13 +6461,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6479,7 +6479,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6488,25 +6488,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6543,19 +6543,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K30" t="n">
-        <v>222.5746515181232</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L30" t="n">
-        <v>836.4717212750119</v>
+        <v>711.1141612171745</v>
       </c>
       <c r="M30" t="n">
-        <v>1404.566607653652</v>
+        <v>1149.698165809328</v>
       </c>
       <c r="N30" t="n">
-        <v>1749.08726329127</v>
+        <v>1954.109744073479</v>
       </c>
       <c r="O30" t="n">
-        <v>2418.551024593929</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P30" t="n">
         <v>2623.573505376138</v>
@@ -6595,16 +6595,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3459.155393916676</v>
+        <v>3753.95843499698</v>
       </c>
       <c r="C31" t="n">
-        <v>3459.155393916676</v>
+        <v>3753.95843499698</v>
       </c>
       <c r="D31" t="n">
-        <v>3459.155393916676</v>
+        <v>3753.95843499698</v>
       </c>
       <c r="E31" t="n">
-        <v>3459.155393916676</v>
+        <v>3606.045341414587</v>
       </c>
       <c r="F31" t="n">
         <v>3459.155393916676</v>
@@ -6619,7 +6619,7 @@
         <v>3459.155393916676</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380585</v>
+        <v>3471.538086380586</v>
       </c>
       <c r="K31" t="n">
         <v>3621.723490625197</v>
@@ -6643,28 +6643,28 @@
         <v>4860.854573014292</v>
       </c>
       <c r="R31" t="n">
-        <v>4860.854573014292</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S31" t="n">
-        <v>4741.167820987513</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="T31" t="n">
-        <v>4741.167820987513</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="U31" t="n">
-        <v>4452.039182201071</v>
+        <v>4746.842223281375</v>
       </c>
       <c r="V31" t="n">
-        <v>4197.354693995184</v>
+        <v>4492.157735075488</v>
       </c>
       <c r="W31" t="n">
-        <v>3907.937523958223</v>
+        <v>4202.740565038527</v>
       </c>
       <c r="X31" t="n">
-        <v>3679.947973060206</v>
+        <v>3974.75101414051</v>
       </c>
       <c r="Y31" t="n">
-        <v>3459.155393916676</v>
+        <v>3753.95843499698</v>
       </c>
     </row>
     <row r="32">
@@ -6674,31 +6674,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K32" t="n">
         <v>889.2841917514088</v>
@@ -6707,43 +6707,43 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6774,25 +6774,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K33" t="n">
-        <v>246.2867756623456</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L33" t="n">
-        <v>493.0519035688096</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M33" t="n">
-        <v>944.675685027119</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="N33" t="n">
-        <v>1749.08726329127</v>
+        <v>1451.86705772572</v>
       </c>
       <c r="O33" t="n">
-        <v>2418.551024593929</v>
+        <v>2103.272883640391</v>
       </c>
       <c r="P33" t="n">
         <v>2623.573505376138</v>
@@ -6832,46 +6832,46 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>696.2811958984813</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C34" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D34" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E34" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F34" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G34" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
         <v>1460.082827585746</v>
@@ -6880,28 +6880,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>964.1357418247858</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>696.2811958984813</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V34" t="n">
-        <v>696.2811958984813</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W34" t="n">
-        <v>696.2811958984813</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X34" t="n">
-        <v>696.2811958984813</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y34" t="n">
-        <v>696.2811958984813</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
@@ -6920,40 +6920,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805474</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823804</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514099</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.627437207831</v>
@@ -6968,19 +6968,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -6990,16 +6990,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C36" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D36" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E36" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
         <v>358.2718071316295</v>
@@ -7017,22 +7017,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="K36" t="n">
-        <v>246.2867756623457</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L36" t="n">
-        <v>493.0519035688096</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M36" t="n">
-        <v>1261.420049961271</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="N36" t="n">
-        <v>2051.878056918009</v>
+        <v>1451.86705772572</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136706</v>
+        <v>2103.272883640391</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7050,7 +7050,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V36" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W36" t="n">
         <v>1571.258395043133</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C37" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D37" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E37" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F37" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G37" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H37" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>4860.854573014293</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>4637.069157803799</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>4347.940519017357</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V37" t="n">
-        <v>4093.25603081147</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W37" t="n">
-        <v>3803.838860774509</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>3575.849309876492</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y37" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7148,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7166,34 +7166,34 @@
         <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823804</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514099</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014293</v>
@@ -7205,19 +7205,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7227,16 +7227,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C39" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D39" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E39" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
         <v>358.2718071316295</v>
@@ -7257,16 +7257,16 @@
         <v>97.21709146028587</v>
       </c>
       <c r="L39" t="n">
-        <v>327.180197328635</v>
+        <v>711.1141612171746</v>
       </c>
       <c r="M39" t="n">
-        <v>1089.288466700114</v>
+        <v>1479.482307609636</v>
       </c>
       <c r="N39" t="n">
-        <v>1433.809122337732</v>
+        <v>2283.893885873787</v>
       </c>
       <c r="O39" t="n">
-        <v>2103.272883640391</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P39" t="n">
         <v>2623.573505376138</v>
@@ -7287,7 +7287,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V39" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W39" t="n">
         <v>1571.258395043133</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3776.004670426977</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="C40" t="n">
-        <v>3607.06848749907</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="D40" t="n">
-        <v>3607.06848749907</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E40" t="n">
-        <v>3459.155393916677</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F40" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N40" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>4860.854573014293</v>
+        <v>1449.035844780373</v>
       </c>
       <c r="T40" t="n">
-        <v>4637.069157803799</v>
+        <v>1225.250429569879</v>
       </c>
       <c r="U40" t="n">
-        <v>4347.940519017357</v>
+        <v>936.1217907834367</v>
       </c>
       <c r="V40" t="n">
-        <v>4347.940519017357</v>
+        <v>681.4373025775499</v>
       </c>
       <c r="W40" t="n">
-        <v>4347.940519017357</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="X40" t="n">
-        <v>4119.950968119339</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="Y40" t="n">
-        <v>3957.653135257216</v>
+        <v>392.0201325405893</v>
       </c>
     </row>
     <row r="41">
@@ -7391,28 +7391,28 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805458</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7421,25 +7421,25 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
         <v>4262.3578574653</v>
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C42" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D42" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E42" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K42" t="n">
-        <v>2459.855719156279</v>
+        <v>378.8037710565637</v>
       </c>
       <c r="L42" t="n">
-        <v>2689.818825024628</v>
+        <v>608.7668769249128</v>
       </c>
       <c r="M42" t="n">
-        <v>3458.186971417089</v>
+        <v>1377.135023317374</v>
       </c>
       <c r="N42" t="n">
-        <v>3802.707627054707</v>
+        <v>2181.546601581525</v>
       </c>
       <c r="O42" t="n">
-        <v>4472.171388357367</v>
+        <v>2430.300015665487</v>
       </c>
       <c r="P42" t="n">
-        <v>4860.854573014293</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="Q42" t="n">
-        <v>4860.854573014293</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S42" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T42" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U42" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V42" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W42" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X42" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y42" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="43">
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>149.1769900497046</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>149.1769900497046</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>149.1769900497046</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>149.1769900497046</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>149.1769900497046</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>149.1769900497046</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7576,13 +7576,13 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
         <v>1460.082827585746</v>
@@ -7591,28 +7591,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1471.669354659368</v>
       </c>
       <c r="S43" t="n">
-        <v>1387.841167119728</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="T43" t="n">
-        <v>1164.055751909234</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="U43" t="n">
-        <v>874.9271131227918</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V43" t="n">
-        <v>620.2426249169049</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W43" t="n">
-        <v>330.8254548799443</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X43" t="n">
-        <v>330.8254548799443</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y43" t="n">
-        <v>330.8254548799443</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
@@ -7631,7 +7631,7 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
         <v>904.3190116155888</v>
@@ -7640,16 +7640,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7658,28 +7658,28 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
         <v>3931.29497012173</v>
@@ -7701,52 +7701,52 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C45" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D45" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E45" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
         <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358149</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>97.21709146028589</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>508.1073603047985</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L45" t="n">
-        <v>1122.004430061687</v>
+        <v>618.8589595388348</v>
       </c>
       <c r="M45" t="n">
-        <v>1429.324563341649</v>
+        <v>939.1942790685366</v>
       </c>
       <c r="N45" t="n">
-        <v>1823.732818421694</v>
+        <v>1743.605857332687</v>
       </c>
       <c r="O45" t="n">
-        <v>2103.272883640391</v>
+        <v>1992.35927141665</v>
       </c>
       <c r="P45" t="n">
-        <v>2623.573505376138</v>
+        <v>2512.659893152397</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7761,7 +7761,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V45" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W45" t="n">
         <v>1571.258395043133</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7813,13 +7813,13 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O46" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
         <v>1460.082827585746</v>
@@ -7831,25 +7831,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473454</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>786.0822064765184</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V46" t="n">
-        <v>531.3977182706316</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W46" t="n">
-        <v>241.980548233671</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028589</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028589</v>
+        <v>216.9038434870658</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8769,25 +8769,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9006,13 +9006,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>479.3423743435536</v>
@@ -9021,13 +9021,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9246,25 +9246,25 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>196.8914677452491</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>275.1583430503595</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9486,22 +9486,22 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>382.6655585687156</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>65.19760345051634</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,13 +9714,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
@@ -9729,16 +9729,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9951,7 +9951,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9960,13 +9960,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>65.19760345051827</v>
+        <v>345.5976799176557</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10188,10 +10188,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10206,13 +10206,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10428,28 +10428,28 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>145.76126078621</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>375.6219805009841</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720756</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10665,28 +10665,28 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>375.6219805009841</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720756</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10899,10 +10899,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10917,10 +10917,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298482</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,7 +11373,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11382,19 +11382,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>65.19760345051816</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23464,7 +23464,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23665,10 +23665,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>65.68620240862214</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>82.39383318338568</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23938,7 +23938,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24175,7 +24175,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24187,13 +24187,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>14.45548819888947</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24412,10 +24412,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>82.39383318338567</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>99.61721462421983</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -24661,13 +24661,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>112.2167382934144</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>167.246821098628</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>166.4935684633777</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675363</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642721</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,16 +24883,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>79.43092547709136</v>
+        <v>197.9208099836034</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>221.5475610583894</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>283.3294785667818</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25075,7 +25075,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25087,13 +25087,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25129,16 +25129,16 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>21.06135193153591</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25360,13 +25360,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>103.0576765518774</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25546,10 +25546,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25558,7 +25558,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
@@ -25597,7 +25597,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>148.539188463849</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25606,16 +25606,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>57.90979881859306</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25801,7 +25801,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>97.4735287640116</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25831,16 +25831,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>82.98990566424403</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25849,10 +25849,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>61.34209567542518</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26071,10 +26071,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26086,10 +26086,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>82.39383318338594</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>645197.9485672198</v>
+        <v>645197.9485672199</v>
       </c>
     </row>
     <row r="11">
@@ -26314,34 +26314,34 @@
         <v>759463.6371244624</v>
       </c>
       <c r="C2" t="n">
-        <v>759463.6371244624</v>
+        <v>759463.6371244623</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244624</v>
+        <v>759463.6371244623</v>
       </c>
       <c r="E2" t="n">
         <v>723403.7605147616</v>
       </c>
       <c r="F2" t="n">
-        <v>723403.7605147613</v>
+        <v>723403.7605147617</v>
       </c>
       <c r="G2" t="n">
-        <v>723403.7605147613</v>
+        <v>723403.7605147614</v>
       </c>
       <c r="H2" t="n">
         <v>723403.7605147612</v>
       </c>
       <c r="I2" t="n">
-        <v>723403.7605147612</v>
+        <v>723403.7605147613</v>
       </c>
       <c r="J2" t="n">
+        <v>723403.7605147617</v>
+      </c>
+      <c r="K2" t="n">
+        <v>723403.7605147616</v>
+      </c>
+      <c r="L2" t="n">
         <v>723403.7605147614</v>
-      </c>
-      <c r="K2" t="n">
-        <v>723403.7605147611</v>
-      </c>
-      <c r="L2" t="n">
-        <v>723403.7605147616</v>
       </c>
       <c r="M2" t="n">
         <v>723403.7605147616</v>
@@ -26350,10 +26350,10 @@
         <v>723403.7605147612</v>
       </c>
       <c r="O2" t="n">
-        <v>723403.7605147616</v>
+        <v>723403.7605147612</v>
       </c>
       <c r="P2" t="n">
-        <v>723403.7605147614</v>
+        <v>723403.7605147618</v>
       </c>
     </row>
     <row r="3">
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925928</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,40 +26424,40 @@
         <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758431</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905759206</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905758693</v>
+        <v>787.7936905757878</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905758693</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="I4" t="n">
         <v>787.7936905758696</v>
       </c>
       <c r="J4" t="n">
-        <v>787.793690575921</v>
+        <v>787.7936905758635</v>
       </c>
       <c r="K4" t="n">
+        <v>787.7936905758265</v>
+      </c>
+      <c r="L4" t="n">
         <v>787.7936905758694</v>
       </c>
-      <c r="L4" t="n">
-        <v>787.793690575921</v>
-      </c>
       <c r="M4" t="n">
-        <v>787.7936905758696</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="N4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="O4" t="n">
-        <v>787.7936905759254</v>
+        <v>787.7936905758693</v>
       </c>
       <c r="P4" t="n">
-        <v>787.7936905758345</v>
+        <v>787.7936905758927</v>
       </c>
     </row>
     <row r="5">
@@ -26476,13 +26476,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871662</v>
@@ -26491,13 +26491,13 @@
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871664</v>
@@ -26509,7 +26509,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-52422.45933411055</v>
+        <v>-52422.45933411049</v>
       </c>
       <c r="C6" t="n">
-        <v>537545.4198804339</v>
+        <v>537545.4198804338</v>
       </c>
       <c r="D6" t="n">
-        <v>537545.4198804339</v>
+        <v>537545.4198804338</v>
       </c>
       <c r="E6" t="n">
         <v>105468.6043985729</v>
       </c>
       <c r="F6" t="n">
+        <v>630628.6408754692</v>
+      </c>
+      <c r="G6" t="n">
+        <v>630628.6408754691</v>
+      </c>
+      <c r="H6" t="n">
+        <v>630628.640875469</v>
+      </c>
+      <c r="I6" t="n">
         <v>630628.6408754688</v>
       </c>
-      <c r="G6" t="n">
-        <v>630628.6408754688</v>
-      </c>
-      <c r="H6" t="n">
-        <v>630628.6408754687</v>
-      </c>
-      <c r="I6" t="n">
-        <v>630628.6408754687</v>
-      </c>
       <c r="J6" t="n">
-        <v>454205.4216828762</v>
+        <v>454205.4216828763</v>
       </c>
       <c r="K6" t="n">
-        <v>630628.6408754686</v>
+        <v>630628.6408754691</v>
       </c>
       <c r="L6" t="n">
-        <v>630628.6408754691</v>
+        <v>630628.640875469</v>
       </c>
       <c r="M6" t="n">
-        <v>495827.6256416318</v>
+        <v>495827.6256416319</v>
       </c>
       <c r="N6" t="n">
         <v>630628.6408754687</v>
       </c>
       <c r="O6" t="n">
-        <v>630628.6408754691</v>
+        <v>630628.6408754687</v>
       </c>
       <c r="P6" t="n">
-        <v>630628.640875469</v>
+        <v>630628.6408754693</v>
       </c>
     </row>
   </sheetData>
@@ -26738,7 +26738,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26750,34 +26750,34 @@
         <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
+        <v>830.3824054541005</v>
+      </c>
+      <c r="H3" t="n">
         <v>830.3824054541002</v>
-      </c>
-      <c r="H3" t="n">
-        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26829,7 +26829,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="P4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
     </row>
   </sheetData>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545551</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>227.7724674624579</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27385,13 +27385,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>218.8388043680903</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -27588,16 +27588,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>96.25160475629417</v>
+        <v>125.1332306165952</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>333.415037428428</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>132.378137768076</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,10 +27819,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>33.52111458652567</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>148.550463817165</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27853,16 +27853,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>107.006058053945</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>7.478382179942116</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27898,19 +27898,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28014,7 +28014,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>25.16398464933172</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28023,13 +28023,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>111.97993115539</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>45.199959188537</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28068,7 +28068,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29758,7 +29758,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -30478,7 +30478,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.236344360222574e-12</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -31127,7 +31127,7 @@
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>61.04368814949358</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31148,7 +31148,7 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>50.44659727034982</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31376,28 +31376,28 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>195.5988322391985</v>
       </c>
       <c r="O6" t="n">
-        <v>73.87984549392741</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31610,10 +31610,10 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>162.4518126576415</v>
       </c>
       <c r="N9" t="n">
-        <v>91.88325107529209</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
         <v>193.3156655923047</v>
@@ -31841,25 +31841,25 @@
         <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>214.6672850537588</v>
       </c>
       <c r="M12" t="n">
         <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
         <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>160.3754482927558</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>100.1578341526431</v>
@@ -32020,7 +32020,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446473</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
         <v>76.0697047810465</v>
@@ -32075,31 +32075,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>417.4153569570606</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>73.80225567258339</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
         <v>33.17612723677465</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32558,28 +32558,28 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32728,7 +32728,7 @@
         <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647517</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
@@ -32786,31 +32786,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>90.70442905378729</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>211.9953150301089</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
         <v>33.17612723677464</v>
@@ -32944,40 +32944,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33017,31 +33017,31 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
         <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458548</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33053,7 +33053,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33117,7 +33117,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
@@ -33129,10 +33129,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
         <v>0.08167695791351813</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,46 +33251,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>250.2621887363011</v>
+        <v>119.4431162246989</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458548</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33336,7 +33336,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33351,10 +33351,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,13 +33488,13 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
         <v>126.8376266666667</v>
@@ -33503,31 +33503,31 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33573,7 +33573,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33588,10 +33588,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P34" t="n">
         <v>181.1050413469073</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,13 +33725,13 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
@@ -33740,31 +33740,31 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>450.4417690092122</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33810,7 +33810,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33825,10 +33825,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P37" t="n">
         <v>181.1050413469073</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446483</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,46 +33962,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>446.235302870482</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855525</v>
+        <v>91.84465193776663</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458548</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34047,7 +34047,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34062,10 +34062,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P40" t="n">
         <v>181.1050413469073</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
         <v>283.3273112961203</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,46 +34199,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>157.8071914529701</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855525</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>208.1209162056321</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34284,7 +34284,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34299,10 +34299,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P43" t="n">
         <v>181.1050413469073</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,46 +34436,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358984</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855525</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>31.2010521344566</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34521,7 +34521,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34536,10 +34536,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P46" t="n">
         <v>181.1050413469073</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>60.29709682323572</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>543.5994944994187</v>
       </c>
       <c r="O6" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35258,10 +35258,10 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856231</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
@@ -35489,25 +35489,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>446.9532505773438</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415665</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P12" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>20.39367420673425</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>348.0006622602202</v>
+        <v>765.4160192172808</v>
       </c>
       <c r="O15" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P15" t="n">
-        <v>258.2906168981903</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,22 +35963,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>530.0860411432622</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P18" t="n">
-        <v>482.2517579818841</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36206,19 +36206,19 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>693.0899356191818</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>347.5613056916245</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36376,10 +36376,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502069</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490666</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>414.2754588817689</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415663</v>
+        <v>559.9959772903292</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,16 +36680,16 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>375.6219805009844</v>
+        <v>656.0220569681219</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980127</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299105</v>
@@ -36759,7 +36759,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
         <v>273.2768778056036</v>
@@ -36771,7 +36771,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349805</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,22 +36911,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>573.8332185642827</v>
+        <v>443.0141460526805</v>
       </c>
       <c r="N30" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556539</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299104</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799284</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789724</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056035</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206027</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118006</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187462</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349805</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,22 +37148,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560242</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>456.1856378366762</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178376</v>
+        <v>657.9856827420923</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415096</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349805</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,25 +37385,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560242</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>776.129440800466</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>798.4424312694324</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>657.9856827420923</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507407</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415096</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,19 +37625,19 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>769.8063326984636</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N39" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178376</v>
+        <v>343.1107267700517</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,28 +37780,28 @@
         <v>271.3780219415078</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349805</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,28 +37859,28 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>284.4309894911897</v>
       </c>
       <c r="L42" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>776.129440800466</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N42" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P42" t="n">
-        <v>392.609277431239</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970350042</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504661</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N45" t="n">
-        <v>398.3921768485309</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P45" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>101.2965657842842</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3982196.504837797</v>
+        <v>3987135.767686829</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>603021.2537387956</v>
+        <v>595668.868964134</v>
       </c>
     </row>
     <row r="8">
@@ -670,13 +670,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>73.46100831328349</v>
+        <v>149.5382355489263</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -822,22 +822,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>71.13219726967645</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -876,13 +876,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>155.2114886365811</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -901,19 +901,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>132.8669678359351</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>111.7595127098985</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -961,7 +961,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1062,10 +1062,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>171.7498680634315</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>270.7773459850746</v>
+        <v>325.255748559886</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1350,16 +1350,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>223.1498336210771</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>171.7498680634315</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634815</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710066</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1530,13 +1530,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>112.2536425510784</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>20.58581884348041</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -1587,10 +1587,10 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1621,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896903</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1818,22 +1818,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>172.7067178467367</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.7791350527396</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2098,10 +2098,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113166</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
@@ -2532,19 +2532,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>139.7568420184986</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>211.2541671901477</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>115.5269768002176</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051976</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498009</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -3237,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>203.8435192151917</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
@@ -3486,10 +3486,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>204.1291651532053</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>146.1854691670918</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,22 +4182,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>210.0877336961557</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4318,10 +4318,10 @@
         <v>546.109828622464</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4385,40 +4385,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>578.0123447940987</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>578.0123447940987</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>431.1223972961883</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>262.1225970345207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4524,16 +4524,16 @@
         <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1364.743608328862</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="C5" t="n">
-        <v>995.7810913884502</v>
+        <v>567.286643657864</v>
       </c>
       <c r="D5" t="n">
-        <v>995.7810913884502</v>
+        <v>209.0209450511135</v>
       </c>
       <c r="E5" t="n">
-        <v>995.7810913884502</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F5" t="n">
-        <v>584.7951865988427</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>166.8313784970296</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4567,13 +4567,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2302.336936304455</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2048.575150942547</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>1717.512263598976</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W5" t="n">
-        <v>1364.743608328862</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X5" t="n">
-        <v>1364.743608328862</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y5" t="n">
-        <v>1364.743608328862</v>
+        <v>936.2491605982757</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4655,10 +4655,10 @@
         <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4685,10 +4685,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>372.9958041606071</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C7" t="n">
-        <v>204.0596212327002</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
         <v>53.94298182036445</v>
@@ -4770,7 +4770,7 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>554.6442689908469</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4792,16 +4792,16 @@
         <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>67.86638588177354</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
@@ -4810,7 +4810,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4828,22 +4828,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X8" t="n">
         <v>2368.607930856721</v>
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4892,34 +4892,34 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>372.9958041606071</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C10" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4998,16 +4998,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y10" t="n">
-        <v>554.6442689908469</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5035,58 +5035,58 @@
         <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P11" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K12" t="n">
-        <v>388.8958536704856</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="L12" t="n">
-        <v>618.8589595388348</v>
+        <v>836.471721275012</v>
       </c>
       <c r="M12" t="n">
-        <v>1003.751888060526</v>
+        <v>1604.839867667474</v>
       </c>
       <c r="N12" t="n">
-        <v>1808.163466324677</v>
+        <v>2122.782055165496</v>
       </c>
       <c r="O12" t="n">
-        <v>1808.163466324677</v>
+        <v>2371.535469249458</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>210.6046091886479</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C13" t="n">
-        <v>210.6046091886479</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D13" t="n">
-        <v>210.6046091886479</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5205,10 +5205,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1478.122514150346</v>
       </c>
       <c r="T13" t="n">
-        <v>1164.055751909234</v>
+        <v>1254.337098939852</v>
       </c>
       <c r="U13" t="n">
-        <v>874.9271131227918</v>
+        <v>965.2084601534104</v>
       </c>
       <c r="V13" t="n">
-        <v>620.2426249169049</v>
+        <v>965.2084601534104</v>
       </c>
       <c r="W13" t="n">
-        <v>620.2426249169049</v>
+        <v>675.7912901164499</v>
       </c>
       <c r="X13" t="n">
-        <v>392.2530740188876</v>
+        <v>447.8017392184325</v>
       </c>
       <c r="Y13" t="n">
-        <v>392.2530740188876</v>
+        <v>447.8017392184325</v>
       </c>
     </row>
     <row r="14">
@@ -5269,10 +5269,10 @@
         <v>904.3190116155877</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028583</v>
@@ -5287,10 +5287,10 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5348,7 +5348,7 @@
         <v>358.2718071316294</v>
       </c>
       <c r="G15" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H15" t="n">
         <v>125.4002551675024</v>
@@ -5366,7 +5366,7 @@
         <v>97.21709146028583</v>
       </c>
       <c r="M15" t="n">
-        <v>794.1790493843999</v>
+        <v>794.1790493843997</v>
       </c>
       <c r="N15" t="n">
         <v>1138.699705022018</v>
@@ -5466,19 +5466,19 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U16" t="n">
-        <v>786.0822064765186</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V16" t="n">
-        <v>531.3977182706318</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W16" t="n">
-        <v>241.9805482336712</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028583</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y16" t="n">
         <v>97.21709146028583</v>
@@ -5494,34 +5494,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155877</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805458</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.822278382245</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
@@ -5533,31 +5533,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5582,31 +5582,31 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K18" t="n">
         <v>508.1073603047985</v>
       </c>
       <c r="L18" t="n">
-        <v>738.0704661731477</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M18" t="n">
-        <v>1149.698165809328</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N18" t="n">
-        <v>1954.109744073479</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O18" t="n">
         <v>2623.573505376138</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805458</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5764,40 +5764,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5819,28 +5819,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>97.21709146028583</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>508.1073603047985</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>1122.004430061687</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M21" t="n">
-        <v>1890.372576454149</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N21" t="n">
         <v>2623.573505376138</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5943,19 +5943,19 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5968,19 +5968,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822463</v>
@@ -5989,10 +5989,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6001,7 +6001,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6022,16 +6022,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6068,16 +6068,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>508.1073603047985</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>1122.004430061687</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M24" t="n">
-        <v>1890.372576454149</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N24" t="n">
         <v>2623.573505376138</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>964.1357418247858</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>822.9672145333731</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V25" t="n">
-        <v>568.2827263274862</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W25" t="n">
-        <v>278.8655562905255</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="X25" t="n">
-        <v>278.8655562905255</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y25" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6205,25 +6205,25 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823787</v>
@@ -6244,13 +6244,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6259,16 +6259,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6302,19 +6302,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L27" t="n">
-        <v>1288.32563221405</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M27" t="n">
-        <v>2056.693778606511</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N27" t="n">
         <v>2623.573505376138</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1382.222354598087</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T28" t="n">
         <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011507</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952638</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6451,7 +6451,7 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G29" t="n">
         <v>488.193237080547</v>
@@ -6460,34 +6460,34 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6530,28 +6530,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126481</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571608</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L30" t="n">
-        <v>1288.325632214049</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M30" t="n">
-        <v>2056.693778606511</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N30" t="n">
         <v>2623.573505376138</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6663,10 +6663,10 @@
         <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6679,52 +6679,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6776,19 +6776,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L33" t="n">
-        <v>1288.32563221405</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M33" t="n">
-        <v>2056.693778606511</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N33" t="n">
         <v>2623.573505376138</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1075.21084526296</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U34" t="n">
-        <v>1075.21084526296</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V34" t="n">
-        <v>820.5263570570736</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W34" t="n">
-        <v>531.109187020113</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X34" t="n">
-        <v>303.1196361220957</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
         <v>1701.09316900344</v>
@@ -6925,13 +6925,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
@@ -6940,7 +6940,7 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6955,10 +6955,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -6970,16 +6970,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7134,7 +7134,7 @@
         <v>531.3977182706318</v>
       </c>
       <c r="W37" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X37" t="n">
         <v>97.21709146028584</v>
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7241,19 +7241,19 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K39" t="n">
         <v>508.1073603047985</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="41">
@@ -7390,46 +7390,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7596,10 +7596,10 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T43" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U43" t="n">
         <v>869.3083006011506</v>
@@ -7627,52 +7627,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7724,19 +7724,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>436.8967109626376</v>
       </c>
       <c r="L45" t="n">
-        <v>1288.32563221405</v>
+        <v>1050.793780719526</v>
       </c>
       <c r="M45" t="n">
-        <v>2056.693778606511</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N45" t="n">
         <v>2623.573505376138</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>560.9563154684962</v>
+        <v>675.007103038344</v>
       </c>
       <c r="C46" t="n">
-        <v>392.0201325405893</v>
+        <v>675.007103038344</v>
       </c>
       <c r="D46" t="n">
-        <v>392.0201325405893</v>
+        <v>675.007103038344</v>
       </c>
       <c r="E46" t="n">
-        <v>244.1070389581962</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U46" t="n">
-        <v>1286.706438541584</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V46" t="n">
-        <v>1032.021950335697</v>
+        <v>675.007103038344</v>
       </c>
       <c r="W46" t="n">
-        <v>742.6047802987359</v>
+        <v>675.007103038344</v>
       </c>
       <c r="X46" t="n">
-        <v>742.6047802987359</v>
+        <v>675.007103038344</v>
       </c>
       <c r="Y46" t="n">
-        <v>742.6047802987359</v>
+        <v>675.007103038344</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8783,7 +8783,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -8941,7 +8941,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627448</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
@@ -9257,7 +9257,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -23418,13 +23418,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>34.18032009549079</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>177.3349911401228</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,10 +23475,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23706,22 +23706,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>79.43092547709131</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>82.39383318338565</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23940,7 +23940,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24420,19 +24420,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>146.4805103800788</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>75.26883114644332</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24651,7 +24651,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>82.39383318338567</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -25125,13 +25125,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>14.74113413690307</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25374,10 +25374,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>82.39383318338565</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25599,7 +25599,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>82.39383318338565</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25836,13 +25836,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>0.2484934794773324</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,22 +26070,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>76.14961870242169</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>645197.9485672198</v>
+        <v>645197.9485672199</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244622</v>
+        <v>759463.6371244623</v>
       </c>
       <c r="C2" t="n">
-        <v>759463.6371244624</v>
+        <v>759463.6371244623</v>
       </c>
       <c r="D2" t="n">
         <v>759463.6371244623</v>
       </c>
       <c r="E2" t="n">
-        <v>723403.7605147612</v>
+        <v>723403.7605147611</v>
       </c>
       <c r="F2" t="n">
-        <v>723403.7605147612</v>
+        <v>723403.7605147611</v>
       </c>
       <c r="G2" t="n">
+        <v>723403.7605147611</v>
+      </c>
+      <c r="H2" t="n">
+        <v>723403.7605147611</v>
+      </c>
+      <c r="I2" t="n">
         <v>723403.7605147613</v>
-      </c>
-      <c r="H2" t="n">
-        <v>723403.7605147613</v>
-      </c>
-      <c r="I2" t="n">
-        <v>723403.7605147612</v>
       </c>
       <c r="J2" t="n">
         <v>723403.7605147612</v>
       </c>
       <c r="K2" t="n">
-        <v>723403.7605147612</v>
+        <v>723403.7605147613</v>
       </c>
       <c r="L2" t="n">
+        <v>723403.7605147611</v>
+      </c>
+      <c r="M2" t="n">
+        <v>723403.7605147611</v>
+      </c>
+      <c r="N2" t="n">
         <v>723403.7605147613</v>
-      </c>
-      <c r="M2" t="n">
-        <v>723403.7605147612</v>
-      </c>
-      <c r="N2" t="n">
-        <v>723403.7605147611</v>
       </c>
       <c r="O2" t="n">
         <v>723403.7605147612</v>
       </c>
       <c r="P2" t="n">
-        <v>723403.7605147612</v>
+        <v>723403.7605147613</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768964</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.150924617832061e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="C4" t="n">
         <v>139059.1391806191</v>
       </c>
       <c r="D4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905759103</v>
+        <v>787.7936905758286</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905759235</v>
+        <v>787.7936905759211</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905759223</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="H4" t="n">
-        <v>787.793690575921</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="I4" t="n">
         <v>787.7936905758695</v>
@@ -26444,22 +26444,22 @@
         <v>787.7936905758695</v>
       </c>
       <c r="K4" t="n">
-        <v>787.793690575925</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="L4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="M4" t="n">
         <v>787.7936905758694</v>
       </c>
       <c r="N4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905759224</v>
       </c>
       <c r="O4" t="n">
         <v>787.7936905758694</v>
       </c>
       <c r="P4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
     </row>
     <row r="5">
@@ -26478,40 +26478,40 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871661</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-52422.45933411087</v>
+        <v>-52422.45933411078</v>
       </c>
       <c r="C6" t="n">
-        <v>537545.4198804339</v>
+        <v>537545.4198804338</v>
       </c>
       <c r="D6" t="n">
         <v>537545.4198804338</v>
       </c>
       <c r="E6" t="n">
-        <v>104494.0131388509</v>
+        <v>105371.1452726001</v>
       </c>
       <c r="F6" t="n">
-        <v>629654.0496157471</v>
+        <v>630531.1817494966</v>
       </c>
       <c r="G6" t="n">
-        <v>629654.0496157472</v>
+        <v>630531.1817494965</v>
       </c>
       <c r="H6" t="n">
-        <v>629654.0496157472</v>
+        <v>630531.1817494965</v>
       </c>
       <c r="I6" t="n">
-        <v>629654.0496157471</v>
+        <v>630531.1817494967</v>
       </c>
       <c r="J6" t="n">
-        <v>453230.8304231541</v>
+        <v>454107.9625569035</v>
       </c>
       <c r="K6" t="n">
-        <v>629654.0496157472</v>
+        <v>630531.1817494967</v>
       </c>
       <c r="L6" t="n">
-        <v>629654.0496157471</v>
+        <v>630531.1817494965</v>
       </c>
       <c r="M6" t="n">
-        <v>494853.03438191</v>
+        <v>495730.1665156591</v>
       </c>
       <c r="N6" t="n">
-        <v>629654.0496157469</v>
+        <v>630531.1817494968</v>
       </c>
       <c r="O6" t="n">
-        <v>629654.0496157471</v>
+        <v>630531.1817494966</v>
       </c>
       <c r="P6" t="n">
-        <v>629654.0496157471</v>
+        <v>630531.1817494967</v>
       </c>
     </row>
   </sheetData>
@@ -26746,25 +26746,25 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541002</v>
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27390,13 +27390,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>333.4150374284279</v>
+        <v>257.3378101927851</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -27542,22 +27542,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>85.03869157211869</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>45.19995918853699</v>
@@ -27596,13 +27596,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>96.92615468724688</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27621,19 +27621,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>249.0634022363267</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>212.1632600544586</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27681,7 +27681,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27782,10 +27782,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>46.83478528866331</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27918,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>98.95375469339439</v>
+        <v>44.47535211858303</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28070,16 +28070,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>28.98780970275092</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>46.83478528866331</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28089,10 +28089,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-5.86741080007012e-13</v>
       </c>
       <c r="C11" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28341,13 +28341,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28584,7 +28584,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.165290086646564e-12</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28818,7 +28818,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29562,7 +29562,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>1.222133505507372e-12</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -30243,7 +30243,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1.165290086646564e-12</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -31132,7 +31132,7 @@
         <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649102</v>
+        <v>11.76595806653236</v>
       </c>
       <c r="L3" t="n">
         <v>176.4169820478007</v>
@@ -31141,7 +31141,7 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N3" t="n">
-        <v>167.900586832999</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O3" t="n">
         <v>193.3156655923047</v>
@@ -31375,13 +31375,13 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>162.4518126576415</v>
       </c>
       <c r="N6" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>149.8971812516338</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
         <v>155.1528646479577</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31612,7 +31612,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>86.43447689993508</v>
       </c>
       <c r="N9" t="n">
         <v>211.31907117367</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,37 +31840,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>65.209706052515</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>175.173264505459</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32086,7 +32086,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>380.4309478731438</v>
+        <v>380.4309478731436</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -32104,10 +32104,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32320,16 +32320,16 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>92.21452536007956</v>
+        <v>380.6284621420188</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -32341,10 +32341,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>392.6063366508803</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -32578,10 +32578,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,16 +32718,16 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927192</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>392.6063366508803</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -32815,10 +32815,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>224.6051223555648</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -33052,10 +33052,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>224.6051223555648</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -33289,10 +33289,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565529</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33511,7 +33511,7 @@
         <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>224.6051223555648</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -33681,7 +33681,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446483</v>
       </c>
       <c r="S35" t="n">
         <v>76.06970478104648</v>
@@ -33894,7 +33894,7 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946997</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34392,7 +34392,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446492</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
         <v>76.06970478104648</v>
@@ -34450,7 +34450,7 @@
         <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>48.48571443651716</v>
       </c>
       <c r="L45" t="n">
         <v>387.8120847358985</v>
@@ -34459,7 +34459,7 @@
         <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>224.6051223555648</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,7 +34789,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
@@ -35023,13 +35023,13 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856231</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>401.1632560839189</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35260,19 +35260,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>388.7807358804966</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>523.1739267656792</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,19 +35649,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951466</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
         <v>570.6060255109123</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35734,13 +35734,13 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>704.0019777011254</v>
+        <v>704.0019777011252</v>
       </c>
       <c r="N15" t="n">
         <v>348.0006622602202</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P15" t="n">
         <v>525.5561835714618</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35968,16 +35968,16 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>415.7855551880612</v>
+        <v>704.1994919700004</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,16 +36120,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005178</v>
@@ -36208,10 +36208,10 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
-        <v>740.6069989111005</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,16 +36360,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081124</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
         <v>713.1546070951472</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
         <v>415.0406756005178</v>
@@ -36445,10 +36445,10 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N24" t="n">
-        <v>740.6069989111005</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005178</v>
@@ -36682,10 +36682,10 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
-        <v>572.6057846157851</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005178</v>
@@ -36919,10 +36919,10 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N30" t="n">
-        <v>572.6057846157851</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37077,7 +37077,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005178</v>
@@ -37159,7 +37159,7 @@
         <v>776.1294408004661</v>
       </c>
       <c r="N33" t="n">
-        <v>572.6057846157851</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
         <v>528.689756130333</v>
@@ -37797,7 +37797,7 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109128</v>
       </c>
       <c r="Q41" t="n">
         <v>350.4995841502048</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,7 +38098,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>175.1095124747368</v>
       </c>
       <c r="L45" t="n">
         <v>620.0980502594834</v>
@@ -38107,7 +38107,7 @@
         <v>776.1294408004661</v>
       </c>
       <c r="N45" t="n">
-        <v>572.6057846157851</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
